--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H2">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I2">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J2">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.776179</v>
+        <v>1.947351333333333</v>
       </c>
       <c r="N2">
-        <v>5.328537000000001</v>
+        <v>5.842054</v>
       </c>
       <c r="O2">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588643</v>
       </c>
       <c r="P2">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588641</v>
       </c>
       <c r="Q2">
-        <v>28.05981237544834</v>
+        <v>41.16551746289667</v>
       </c>
       <c r="R2">
-        <v>252.5383113790351</v>
+        <v>370.48965716607</v>
       </c>
       <c r="S2">
-        <v>0.001331993172914685</v>
+        <v>0.001613916971074177</v>
       </c>
       <c r="T2">
-        <v>0.001331993172914686</v>
+        <v>0.001613916971074177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H3">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I3">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J3">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>309.820785</v>
       </c>
       <c r="O3">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075229</v>
       </c>
       <c r="P3">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075228</v>
       </c>
       <c r="Q3">
-        <v>1631.500934893408</v>
+        <v>2183.124793999825</v>
       </c>
       <c r="R3">
-        <v>14683.50841404068</v>
+        <v>19648.12314599842</v>
       </c>
       <c r="S3">
-        <v>0.07744699350817467</v>
+        <v>0.08559061982361406</v>
       </c>
       <c r="T3">
-        <v>0.0774469935081747</v>
+        <v>0.08559061982361406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H4">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I4">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J4">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.77521133333333</v>
+        <v>31.14585733333333</v>
       </c>
       <c r="N4">
-        <v>101.325634</v>
+        <v>93.43757199999999</v>
       </c>
       <c r="O4">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="P4">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="Q4">
-        <v>533.5757786543189</v>
+        <v>658.3995974458065</v>
       </c>
       <c r="R4">
-        <v>4802.18200788887</v>
+        <v>5925.596377012259</v>
       </c>
       <c r="S4">
-        <v>0.0253287258264796</v>
+        <v>0.0258129218228324</v>
       </c>
       <c r="T4">
-        <v>0.0253287258264796</v>
+        <v>0.0258129218228324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H5">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I5">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J5">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.963124</v>
+        <v>60.71084966666666</v>
       </c>
       <c r="N5">
-        <v>161.889372</v>
+        <v>182.132549</v>
       </c>
       <c r="O5">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="P5">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="Q5">
-        <v>852.5014284219401</v>
+        <v>1283.380918153338</v>
       </c>
       <c r="R5">
-        <v>7672.512855797461</v>
+        <v>11550.42826338004</v>
       </c>
       <c r="S5">
-        <v>0.04046805685527675</v>
+        <v>0.05031566154919127</v>
       </c>
       <c r="T5">
-        <v>0.04046805685527676</v>
+        <v>0.05031566154919128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>223.189369</v>
       </c>
       <c r="I6">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J6">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.776179</v>
+        <v>1.947351333333333</v>
       </c>
       <c r="N6">
-        <v>5.328537000000001</v>
+        <v>5.842054</v>
       </c>
       <c r="O6">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588643</v>
       </c>
       <c r="P6">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588641</v>
       </c>
       <c r="Q6">
-        <v>132.1414234136837</v>
+        <v>144.8760384359918</v>
       </c>
       <c r="R6">
-        <v>1189.272810723153</v>
+        <v>1303.884345923926</v>
       </c>
       <c r="S6">
-        <v>0.006272724546093589</v>
+        <v>0.005679945535595097</v>
       </c>
       <c r="T6">
-        <v>0.006272724546093589</v>
+        <v>0.005679945535595097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>223.189369</v>
       </c>
       <c r="I7">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J7">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>309.820785</v>
       </c>
       <c r="O7">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075229</v>
       </c>
       <c r="P7">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075228</v>
       </c>
       <c r="Q7">
         <v>7683.189500803852</v>
@@ -883,10 +883,10 @@
         <v>69148.70550723467</v>
       </c>
       <c r="S7">
-        <v>0.3647193297071005</v>
+        <v>0.301223710803652</v>
       </c>
       <c r="T7">
-        <v>0.3647193297071005</v>
+        <v>0.301223710803652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>223.189369</v>
       </c>
       <c r="I8">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J8">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.77521133333333</v>
+        <v>31.14585733333333</v>
       </c>
       <c r="N8">
-        <v>101.325634</v>
+        <v>93.43757199999999</v>
       </c>
       <c r="O8">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="P8">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="Q8">
-        <v>2512.756035109438</v>
+        <v>2317.141415063563</v>
       </c>
       <c r="R8">
-        <v>22614.80431598494</v>
+        <v>20854.27273557207</v>
       </c>
       <c r="S8">
-        <v>0.1192799808916209</v>
+        <v>0.09084481587096684</v>
       </c>
       <c r="T8">
-        <v>0.1192799808916209</v>
+        <v>0.09084481587096685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>223.189369</v>
       </c>
       <c r="I9">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J9">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.963124</v>
+        <v>60.71084966666666</v>
       </c>
       <c r="N9">
-        <v>161.889372</v>
+        <v>182.132549</v>
       </c>
       <c r="O9">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="P9">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="Q9">
-        <v>4014.665198276252</v>
+        <v>4516.67207618573</v>
       </c>
       <c r="R9">
-        <v>36131.98678448627</v>
+        <v>40650.04868567158</v>
       </c>
       <c r="S9">
-        <v>0.1905752812631452</v>
+        <v>0.1770786368251825</v>
       </c>
       <c r="T9">
-        <v>0.1905752812631452</v>
+        <v>0.1770786368251826</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H10">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I10">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J10">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.776179</v>
+        <v>1.947351333333333</v>
       </c>
       <c r="N10">
-        <v>5.328537000000001</v>
+        <v>5.842054</v>
       </c>
       <c r="O10">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588643</v>
       </c>
       <c r="P10">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588641</v>
       </c>
       <c r="Q10">
-        <v>4.806639956191334</v>
+        <v>7.895613225936223</v>
       </c>
       <c r="R10">
-        <v>43.259759605722</v>
+        <v>71.060519033426</v>
       </c>
       <c r="S10">
-        <v>0.0002281701502718442</v>
+        <v>0.0003095519009049652</v>
       </c>
       <c r="T10">
-        <v>0.0002281701502718442</v>
+        <v>0.0003095519009049651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H11">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I11">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J11">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>309.820785</v>
       </c>
       <c r="O11">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075229</v>
       </c>
       <c r="P11">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075228</v>
       </c>
       <c r="Q11">
-        <v>279.4757668830233</v>
+        <v>418.7268874467683</v>
       </c>
       <c r="R11">
-        <v>2515.28190194721</v>
+        <v>3768.541987020915</v>
       </c>
       <c r="S11">
-        <v>0.01326665369327279</v>
+        <v>0.01641642013863934</v>
       </c>
       <c r="T11">
-        <v>0.01326665369327279</v>
+        <v>0.01641642013863934</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H12">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I12">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J12">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.77521133333333</v>
+        <v>31.14585733333333</v>
       </c>
       <c r="N12">
-        <v>101.325634</v>
+        <v>93.43757199999999</v>
       </c>
       <c r="O12">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="P12">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="Q12">
-        <v>91.40141862031155</v>
+        <v>126.2821140103409</v>
       </c>
       <c r="R12">
-        <v>822.6127675828039</v>
+        <v>1136.539026093068</v>
       </c>
       <c r="S12">
-        <v>0.004338805404967607</v>
+        <v>0.004950960403403416</v>
       </c>
       <c r="T12">
-        <v>0.004338805404967607</v>
+        <v>0.004950960403403416</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H13">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I13">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J13">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.963124</v>
+        <v>60.71084966666666</v>
       </c>
       <c r="N13">
-        <v>161.889372</v>
+        <v>182.132549</v>
       </c>
       <c r="O13">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="P13">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="Q13">
-        <v>146.033315324248</v>
+        <v>246.1545481705368</v>
       </c>
       <c r="R13">
-        <v>1314.299837918232</v>
+        <v>2215.390933534831</v>
       </c>
       <c r="S13">
-        <v>0.006932169624918524</v>
+        <v>0.0096506257490288</v>
       </c>
       <c r="T13">
-        <v>0.006932169624918524</v>
+        <v>0.0096506257490288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H14">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I14">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J14">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.776179</v>
+        <v>1.947351333333333</v>
       </c>
       <c r="N14">
-        <v>5.328537000000001</v>
+        <v>5.842054</v>
       </c>
       <c r="O14">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588643</v>
       </c>
       <c r="P14">
-        <v>0.009213114886297068</v>
+        <v>0.009881137208588641</v>
       </c>
       <c r="Q14">
-        <v>29.07590813568001</v>
+        <v>58.09694019041756</v>
       </c>
       <c r="R14">
-        <v>261.6831732211201</v>
+        <v>522.872461713758</v>
       </c>
       <c r="S14">
-        <v>0.001380227017016949</v>
+        <v>0.002277722801014403</v>
       </c>
       <c r="T14">
-        <v>0.001380227017016949</v>
+        <v>0.002277722801014403</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H15">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I15">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J15">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>309.820785</v>
       </c>
       <c r="O15">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075229</v>
       </c>
       <c r="P15">
-        <v>0.5356844639284185</v>
+        <v>0.5240248869075228</v>
       </c>
       <c r="Q15">
-        <v>1690.5804882624</v>
+        <v>3081.046429199938</v>
       </c>
       <c r="R15">
-        <v>15215.2243943616</v>
+        <v>27729.41786279944</v>
       </c>
       <c r="S15">
-        <v>0.08025148701987048</v>
+        <v>0.1207941361416175</v>
       </c>
       <c r="T15">
-        <v>0.08025148701987048</v>
+        <v>0.1207941361416175</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H16">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I16">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J16">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.77521133333333</v>
+        <v>31.14585733333333</v>
       </c>
       <c r="N16">
-        <v>101.325634</v>
+        <v>93.43757199999999</v>
       </c>
       <c r="O16">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="P16">
-        <v>0.1751934362037625</v>
+        <v>0.1580385031308132</v>
       </c>
       <c r="Q16">
-        <v>552.8975075097601</v>
+        <v>929.2000779215381</v>
       </c>
       <c r="R16">
-        <v>4976.07756758784</v>
+        <v>8362.800701293843</v>
       </c>
       <c r="S16">
-        <v>0.02624592408069441</v>
+        <v>0.0364298050336106</v>
       </c>
       <c r="T16">
-        <v>0.02624592408069441</v>
+        <v>0.0364298050336106</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H17">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I17">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J17">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.963124</v>
+        <v>60.71084966666666</v>
       </c>
       <c r="N17">
-        <v>161.889372</v>
+        <v>182.132549</v>
       </c>
       <c r="O17">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="P17">
-        <v>0.2799089849815219</v>
+        <v>0.3080554727530752</v>
       </c>
       <c r="Q17">
-        <v>883.3720228300803</v>
+        <v>1811.236905030541</v>
       </c>
       <c r="R17">
-        <v>7950.348205470722</v>
+        <v>16301.13214527487</v>
       </c>
       <c r="S17">
-        <v>0.04193347723818136</v>
+        <v>0.07101054862967253</v>
       </c>
       <c r="T17">
-        <v>0.04193347723818136</v>
+        <v>0.07101054862967254</v>
       </c>
     </row>
   </sheetData>
